--- a/LF/PreTAS/Nigeria/ng_lf_pretas_1_site_202102.xlsx
+++ b/LF/PreTAS/Nigeria/ng_lf_pretas_1_site_202102.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Nigeria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56141082-ECE4-48E9-9A36-2D0071C3ADBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C55319-7380-4C15-889C-5730B15A556F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="233">
   <si>
     <t>form_title</t>
   </si>
@@ -110,9 +110,6 @@
     <t>c_consent</t>
   </si>
   <si>
-    <t>Does the school or community consent to participating in this survey?</t>
-  </si>
-  <si>
     <t>c_gps</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
     <t>constraint_message::French</t>
   </si>
   <si>
-    <t>select_one site_list</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -723,6 +717,18 @@
   </si>
   <si>
     <t>Entrer le type de site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allow_choice_duplicates </t>
+  </si>
+  <si>
+    <t>select_one site_liste</t>
+  </si>
+  <si>
+    <t>select_one ui_liste</t>
+  </si>
+  <si>
+    <t>Does the school leader or community leader consent to participating in this survey?</t>
   </si>
 </sst>
 </file>
@@ -1142,11 +1148,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1183,10 +1189,10 @@
         <v>16</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>6</v>
@@ -1198,7 +1204,7 @@
         <v>17</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>8</v>
@@ -1221,7 +1227,7 @@
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
@@ -1233,25 +1239,25 @@
         <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -1259,17 +1265,17 @@
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="8"/>
@@ -1278,24 +1284,24 @@
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="8"/>
@@ -1305,27 +1311,27 @@
       <c r="K4" s="4"/>
       <c r="L4" s="3"/>
       <c r="M4" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>230</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="8"/>
@@ -1335,63 +1341,63 @@
       <c r="K5" s="4"/>
       <c r="L5" s="3"/>
       <c r="M5" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1401,17 +1407,17 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>23</v>
@@ -1421,7 +1427,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1431,7 +1437,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -1439,95 +1445,95 @@
     </row>
     <row r="9" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>26</v>
+        <v>232</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F9" s="10"/>
       <c r="M9" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="E10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>39</v>
-      </c>
       <c r="K10" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F11" s="10"/>
       <c r="K11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="10"/>
       <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -1536,13 +1542,13 @@
     </row>
     <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="C14" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -1560,8 +1566,8 @@
   <dimension ref="A1:G318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A210" sqref="A210"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1583,3745 +1589,3745 @@
         <v>15</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="C2" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="127" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="128" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="130" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="131" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="132" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="133" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="134" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="135" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="136" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F136" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="137" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="138" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="139" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G139" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="140" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="141" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G141" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="142" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="143" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G143" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="144" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G144" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="145" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G145" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="146" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G146" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="147" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G147" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="148" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G148" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="149" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G149" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="150" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G150" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="151" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G151" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="152" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G152" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G153" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="154" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G154" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="155" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G155" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="156" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G156" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="157" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G157" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="158" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G158" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="159" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G159" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="160" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G160" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="161" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G161" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="162" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G162" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="163" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G163" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="164" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G164" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="165" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G165" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="166" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G166" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="167" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G167" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="168" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G168" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="169" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G169" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="170" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G170" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="171" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G171" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="172" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G172" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="173" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G173" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="174" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G174" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="175" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G175" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="176" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G176" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="177" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G177" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="178" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G178" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="179" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G179" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="180" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G180" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="181" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G181" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="182" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G182" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="183" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G183" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="184" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G184" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="185" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G185" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="186" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G186" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="187" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G187" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="188" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G188" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="189" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G189" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="190" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G190" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="191" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G191" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="192" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G192" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="193" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G193" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="194" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G194" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="195" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G195" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="196" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G196" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="197" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G197" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="198" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G198" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="199" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G199" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="200" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G200" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="201" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G201" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="202" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G202" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="203" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G203" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="204" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G204" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="205" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G205" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="206" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G206" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="207" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G207" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="208" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G208" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="209" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G209" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="210" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G210" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="211" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G211" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="212" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G212" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="213" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G213" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="214" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G214" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="215" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G215" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="216" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G216" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="217" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G217" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="218" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G218" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="219" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G219" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="220" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G220" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="221" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G221" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="222" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G222" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="223" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B223" s="7">
         <v>101</v>
@@ -5333,12 +5339,12 @@
         <v>101</v>
       </c>
       <c r="G223" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="224" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B224" s="7">
         <v>102</v>
@@ -5350,12 +5356,12 @@
         <v>102</v>
       </c>
       <c r="G224" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="225" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B225" s="7">
         <v>103</v>
@@ -5367,12 +5373,12 @@
         <v>103</v>
       </c>
       <c r="G225" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="226" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B226" s="7">
         <v>104</v>
@@ -5384,12 +5390,12 @@
         <v>104</v>
       </c>
       <c r="G226" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="227" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B227" s="7">
         <v>105</v>
@@ -5401,12 +5407,12 @@
         <v>105</v>
       </c>
       <c r="G227" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="228" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B228" s="7">
         <v>106</v>
@@ -5418,12 +5424,12 @@
         <v>106</v>
       </c>
       <c r="G228" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="229" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B229" s="7">
         <v>107</v>
@@ -5435,12 +5441,12 @@
         <v>107</v>
       </c>
       <c r="G229" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="230" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B230" s="7">
         <v>108</v>
@@ -5452,12 +5458,12 @@
         <v>108</v>
       </c>
       <c r="G230" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="231" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B231" s="7">
         <v>109</v>
@@ -5469,12 +5475,12 @@
         <v>109</v>
       </c>
       <c r="G231" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="232" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B232" s="7">
         <v>110</v>
@@ -5486,12 +5492,12 @@
         <v>110</v>
       </c>
       <c r="G232" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="233" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B233" s="7">
         <v>111</v>
@@ -5503,12 +5509,12 @@
         <v>111</v>
       </c>
       <c r="G233" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="234" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B234" s="7">
         <v>112</v>
@@ -5520,12 +5526,12 @@
         <v>112</v>
       </c>
       <c r="G234" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="235" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B235" s="7">
         <v>113</v>
@@ -5537,12 +5543,12 @@
         <v>113</v>
       </c>
       <c r="G235" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="236" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B236" s="7">
         <v>114</v>
@@ -5554,12 +5560,12 @@
         <v>114</v>
       </c>
       <c r="G236" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="237" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B237" s="7">
         <v>115</v>
@@ -5571,12 +5577,12 @@
         <v>115</v>
       </c>
       <c r="G237" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="238" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B238" s="7">
         <v>116</v>
@@ -5588,12 +5594,12 @@
         <v>116</v>
       </c>
       <c r="G238" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="239" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B239" s="7">
         <v>117</v>
@@ -5605,12 +5611,12 @@
         <v>117</v>
       </c>
       <c r="G239" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="240" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B240" s="7">
         <v>118</v>
@@ -5622,12 +5628,12 @@
         <v>118</v>
       </c>
       <c r="G240" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="241" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B241" s="7">
         <v>119</v>
@@ -5639,12 +5645,12 @@
         <v>119</v>
       </c>
       <c r="G241" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="242" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B242" s="7">
         <v>120</v>
@@ -5656,12 +5662,12 @@
         <v>120</v>
       </c>
       <c r="G242" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="243" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B243" s="7">
         <v>121</v>
@@ -5673,12 +5679,12 @@
         <v>121</v>
       </c>
       <c r="G243" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="244" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B244" s="7">
         <v>122</v>
@@ -5690,12 +5696,12 @@
         <v>122</v>
       </c>
       <c r="G244" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="245" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B245" s="7">
         <v>123</v>
@@ -5707,12 +5713,12 @@
         <v>123</v>
       </c>
       <c r="G245" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="246" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B246" s="7">
         <v>124</v>
@@ -5724,12 +5730,12 @@
         <v>124</v>
       </c>
       <c r="G246" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="247" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B247" s="7">
         <v>125</v>
@@ -5741,12 +5747,12 @@
         <v>125</v>
       </c>
       <c r="G247" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="248" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B248" s="7">
         <v>126</v>
@@ -5758,12 +5764,12 @@
         <v>126</v>
       </c>
       <c r="G248" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="249" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B249" s="7">
         <v>127</v>
@@ -5775,12 +5781,12 @@
         <v>127</v>
       </c>
       <c r="G249" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="250" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B250" s="7">
         <v>128</v>
@@ -5792,12 +5798,12 @@
         <v>128</v>
       </c>
       <c r="G250" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="251" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B251" s="7">
         <v>129</v>
@@ -5809,12 +5815,12 @@
         <v>129</v>
       </c>
       <c r="G251" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="252" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B252" s="7">
         <v>130</v>
@@ -5826,12 +5832,12 @@
         <v>130</v>
       </c>
       <c r="G252" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="253" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B253" s="7">
         <v>131</v>
@@ -5843,12 +5849,12 @@
         <v>131</v>
       </c>
       <c r="G253" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="254" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B254" s="7">
         <v>132</v>
@@ -5860,12 +5866,12 @@
         <v>132</v>
       </c>
       <c r="G254" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="255" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B255" s="7">
         <v>133</v>
@@ -5877,12 +5883,12 @@
         <v>133</v>
       </c>
       <c r="G255" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="256" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B256" s="7">
         <v>134</v>
@@ -5894,12 +5900,12 @@
         <v>134</v>
       </c>
       <c r="G256" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="257" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B257" s="7">
         <v>135</v>
@@ -5911,12 +5917,12 @@
         <v>135</v>
       </c>
       <c r="G257" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="258" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B258" s="7">
         <v>136</v>
@@ -5928,12 +5934,12 @@
         <v>136</v>
       </c>
       <c r="G258" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="259" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B259" s="7">
         <v>137</v>
@@ -5945,12 +5951,12 @@
         <v>137</v>
       </c>
       <c r="G259" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="260" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B260" s="7">
         <v>138</v>
@@ -5962,12 +5968,12 @@
         <v>138</v>
       </c>
       <c r="G260" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="261" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B261" s="7">
         <v>139</v>
@@ -5979,12 +5985,12 @@
         <v>139</v>
       </c>
       <c r="G261" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="262" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B262" s="7">
         <v>140</v>
@@ -5996,12 +6002,12 @@
         <v>140</v>
       </c>
       <c r="G262" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="263" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B263" s="7">
         <v>141</v>
@@ -6013,12 +6019,12 @@
         <v>141</v>
       </c>
       <c r="G263" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="264" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B264" s="7">
         <v>142</v>
@@ -6030,12 +6036,12 @@
         <v>142</v>
       </c>
       <c r="G264" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="265" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B265" s="7">
         <v>143</v>
@@ -6047,12 +6053,12 @@
         <v>143</v>
       </c>
       <c r="G265" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="266" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B266" s="7">
         <v>144</v>
@@ -6064,12 +6070,12 @@
         <v>144</v>
       </c>
       <c r="G266" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="267" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B267" s="7">
         <v>145</v>
@@ -6081,12 +6087,12 @@
         <v>145</v>
       </c>
       <c r="G267" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="268" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B268" s="7">
         <v>146</v>
@@ -6098,12 +6104,12 @@
         <v>146</v>
       </c>
       <c r="G268" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="269" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B269" s="7">
         <v>147</v>
@@ -6115,12 +6121,12 @@
         <v>147</v>
       </c>
       <c r="G269" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="270" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B270" s="7">
         <v>148</v>
@@ -6132,12 +6138,12 @@
         <v>148</v>
       </c>
       <c r="G270" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="271" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B271" s="7">
         <v>149</v>
@@ -6149,12 +6155,12 @@
         <v>149</v>
       </c>
       <c r="G271" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="272" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B272" s="7">
         <v>150</v>
@@ -6166,12 +6172,12 @@
         <v>150</v>
       </c>
       <c r="G272" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="273" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B273" s="7">
         <v>151</v>
@@ -6183,12 +6189,12 @@
         <v>151</v>
       </c>
       <c r="G273" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="274" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B274" s="7">
         <v>152</v>
@@ -6200,12 +6206,12 @@
         <v>152</v>
       </c>
       <c r="G274" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="275" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B275" s="7">
         <v>153</v>
@@ -6217,12 +6223,12 @@
         <v>153</v>
       </c>
       <c r="G275" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="276" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B276" s="7">
         <v>154</v>
@@ -6234,12 +6240,12 @@
         <v>154</v>
       </c>
       <c r="G276" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="277" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B277" s="7">
         <v>155</v>
@@ -6251,12 +6257,12 @@
         <v>155</v>
       </c>
       <c r="G277" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="278" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B278" s="7">
         <v>156</v>
@@ -6268,12 +6274,12 @@
         <v>156</v>
       </c>
       <c r="G278" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="279" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B279" s="7">
         <v>157</v>
@@ -6285,12 +6291,12 @@
         <v>157</v>
       </c>
       <c r="G279" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="280" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B280" s="7">
         <v>158</v>
@@ -6302,12 +6308,12 @@
         <v>158</v>
       </c>
       <c r="G280" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="281" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B281" s="7">
         <v>159</v>
@@ -6319,12 +6325,12 @@
         <v>159</v>
       </c>
       <c r="G281" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="282" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B282" s="7">
         <v>160</v>
@@ -6336,12 +6342,12 @@
         <v>160</v>
       </c>
       <c r="G282" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="283" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B283" s="7">
         <v>161</v>
@@ -6353,12 +6359,12 @@
         <v>161</v>
       </c>
       <c r="G283" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="284" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B284" s="7">
         <v>162</v>
@@ -6370,12 +6376,12 @@
         <v>162</v>
       </c>
       <c r="G284" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="285" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B285" s="7">
         <v>163</v>
@@ -6387,12 +6393,12 @@
         <v>163</v>
       </c>
       <c r="G285" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="286" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B286" s="7">
         <v>164</v>
@@ -6404,12 +6410,12 @@
         <v>164</v>
       </c>
       <c r="G286" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="287" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B287" s="7">
         <v>165</v>
@@ -6421,12 +6427,12 @@
         <v>165</v>
       </c>
       <c r="G287" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="288" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B288" s="7">
         <v>166</v>
@@ -6438,12 +6444,12 @@
         <v>166</v>
       </c>
       <c r="G288" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="289" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B289" s="7">
         <v>167</v>
@@ -6455,12 +6461,12 @@
         <v>167</v>
       </c>
       <c r="G289" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="290" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B290" s="7">
         <v>168</v>
@@ -6472,12 +6478,12 @@
         <v>168</v>
       </c>
       <c r="G290" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="291" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B291" s="7">
         <v>169</v>
@@ -6489,12 +6495,12 @@
         <v>169</v>
       </c>
       <c r="G291" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="292" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B292" s="7">
         <v>170</v>
@@ -6506,12 +6512,12 @@
         <v>170</v>
       </c>
       <c r="G292" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="293" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B293" s="7">
         <v>171</v>
@@ -6523,12 +6529,12 @@
         <v>171</v>
       </c>
       <c r="G293" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="294" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B294" s="7">
         <v>172</v>
@@ -6540,12 +6546,12 @@
         <v>172</v>
       </c>
       <c r="G294" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="295" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B295" s="7">
         <v>173</v>
@@ -6557,12 +6563,12 @@
         <v>173</v>
       </c>
       <c r="G295" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="296" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B296" s="7">
         <v>174</v>
@@ -6574,12 +6580,12 @@
         <v>174</v>
       </c>
       <c r="G296" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="297" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B297" s="7">
         <v>175</v>
@@ -6591,12 +6597,12 @@
         <v>175</v>
       </c>
       <c r="G297" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="298" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B298" s="7">
         <v>176</v>
@@ -6608,12 +6614,12 @@
         <v>176</v>
       </c>
       <c r="G298" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="299" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B299" s="7">
         <v>177</v>
@@ -6625,12 +6631,12 @@
         <v>177</v>
       </c>
       <c r="G299" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="300" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B300" s="7">
         <v>178</v>
@@ -6642,12 +6648,12 @@
         <v>178</v>
       </c>
       <c r="G300" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="301" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B301" s="7">
         <v>179</v>
@@ -6659,12 +6665,12 @@
         <v>179</v>
       </c>
       <c r="G301" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="302" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B302" s="7">
         <v>180</v>
@@ -6676,12 +6682,12 @@
         <v>180</v>
       </c>
       <c r="G302" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="303" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B303" s="7">
         <v>181</v>
@@ -6693,12 +6699,12 @@
         <v>181</v>
       </c>
       <c r="G303" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="304" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B304" s="7">
         <v>182</v>
@@ -6710,12 +6716,12 @@
         <v>182</v>
       </c>
       <c r="G304" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="305" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B305" s="7">
         <v>183</v>
@@ -6727,12 +6733,12 @@
         <v>183</v>
       </c>
       <c r="G305" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="306" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B306" s="7">
         <v>184</v>
@@ -6744,35 +6750,35 @@
         <v>184</v>
       </c>
       <c r="G306" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B307" t="s">
+        <v>46</v>
+      </c>
+      <c r="C307" t="s">
+        <v>46</v>
+      </c>
+      <c r="D307" t="s">
         <v>48</v>
-      </c>
-      <c r="C307" t="s">
-        <v>48</v>
-      </c>
-      <c r="D307" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B308" t="s">
         <v>47</v>
       </c>
-      <c r="B308" t="s">
+      <c r="C308" t="s">
+        <v>47</v>
+      </c>
+      <c r="D308" t="s">
         <v>49</v>
-      </c>
-      <c r="C308" t="s">
-        <v>49</v>
-      </c>
-      <c r="D308" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="309" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -6807,10 +6813,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6821,7 +6827,7 @@
     <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6834,19 +6840,25 @@
       <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2">
         <v>20200216</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/LF/PreTAS/Nigeria/ng_lf_pretas_1_site_202102.xlsx
+++ b/LF/PreTAS/Nigeria/ng_lf_pretas_1_site_202102.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Nigeria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C55319-7380-4C15-889C-5730B15A556F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7324AF-6F82-4572-A08A-3AEA0F5AB222}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -248,9 +248,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>1. Nigeria - Pre TAS FL From Site</t>
-  </si>
-  <si>
     <t>state_list</t>
   </si>
   <si>
@@ -729,6 +726,9 @@
   </si>
   <si>
     <t>Does the school leader or community leader consent to participating in this survey?</t>
+  </si>
+  <si>
+    <t>1. Nigeria - Pre TAS LF Site Form</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1265,17 +1265,17 @@
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="8"/>
@@ -1291,17 +1291,17 @@
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="8"/>
@@ -1316,22 +1316,22 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="8"/>
@@ -1346,22 +1346,22 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1382,22 +1382,22 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1412,7 +1412,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1451,7 +1451,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10" t="s">
@@ -1592,3742 +1592,3742 @@
         <v>33</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="123" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="129" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="130" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="131" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="132" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="133" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="134" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="135" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="136" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F136" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="137" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="138" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="139" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G139" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="140" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="141" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G141" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="142" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="143" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G143" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="144" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G144" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="145" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G145" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="146" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G146" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="147" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G147" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="148" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G148" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="149" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G149" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="150" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G150" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="151" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G151" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="152" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G152" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="153" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G153" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="154" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G154" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="155" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G155" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="156" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G156" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="157" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G157" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="158" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G158" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="159" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G159" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="160" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G160" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="161" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G161" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="162" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G162" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="163" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G163" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="164" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G164" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="165" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G165" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="166" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G166" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="167" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G167" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="168" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G168" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="169" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G169" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="170" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G170" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="171" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G171" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="172" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G172" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="173" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G173" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="174" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G174" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="175" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G175" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="176" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G176" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="177" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G177" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="178" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G178" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="179" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G179" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="180" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G180" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="181" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G181" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="182" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G182" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="183" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G183" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="184" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G184" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="185" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G185" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="186" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G186" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="187" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G187" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="188" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G188" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="189" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G189" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="190" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G190" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="191" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G191" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="192" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G192" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="193" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G193" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="194" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G194" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="195" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G195" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="196" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G196" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="197" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G197" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="198" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G198" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="199" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G199" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="200" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G200" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="201" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G201" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="202" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G202" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="203" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G203" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="204" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G204" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="205" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G205" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="206" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G206" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="207" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G207" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="208" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G208" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="209" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G209" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="210" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G210" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="211" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G211" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="212" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G212" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="213" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G213" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="214" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G214" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="215" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G215" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="216" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G216" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="217" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G217" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="218" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G218" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="219" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G219" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="220" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G220" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="221" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G221" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="222" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G222" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="223" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B223" s="7">
         <v>101</v>
@@ -5339,12 +5339,12 @@
         <v>101</v>
       </c>
       <c r="G223" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="224" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B224" s="7">
         <v>102</v>
@@ -5356,12 +5356,12 @@
         <v>102</v>
       </c>
       <c r="G224" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="225" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B225" s="7">
         <v>103</v>
@@ -5373,12 +5373,12 @@
         <v>103</v>
       </c>
       <c r="G225" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="226" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B226" s="7">
         <v>104</v>
@@ -5390,12 +5390,12 @@
         <v>104</v>
       </c>
       <c r="G226" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="227" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B227" s="7">
         <v>105</v>
@@ -5407,12 +5407,12 @@
         <v>105</v>
       </c>
       <c r="G227" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="228" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B228" s="7">
         <v>106</v>
@@ -5424,12 +5424,12 @@
         <v>106</v>
       </c>
       <c r="G228" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="229" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B229" s="7">
         <v>107</v>
@@ -5441,12 +5441,12 @@
         <v>107</v>
       </c>
       <c r="G229" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="230" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B230" s="7">
         <v>108</v>
@@ -5458,12 +5458,12 @@
         <v>108</v>
       </c>
       <c r="G230" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="231" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B231" s="7">
         <v>109</v>
@@ -5475,12 +5475,12 @@
         <v>109</v>
       </c>
       <c r="G231" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="232" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B232" s="7">
         <v>110</v>
@@ -5492,12 +5492,12 @@
         <v>110</v>
       </c>
       <c r="G232" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="233" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B233" s="7">
         <v>111</v>
@@ -5509,12 +5509,12 @@
         <v>111</v>
       </c>
       <c r="G233" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="234" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B234" s="7">
         <v>112</v>
@@ -5526,12 +5526,12 @@
         <v>112</v>
       </c>
       <c r="G234" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="235" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B235" s="7">
         <v>113</v>
@@ -5543,12 +5543,12 @@
         <v>113</v>
       </c>
       <c r="G235" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="236" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B236" s="7">
         <v>114</v>
@@ -5560,12 +5560,12 @@
         <v>114</v>
       </c>
       <c r="G236" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="237" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B237" s="7">
         <v>115</v>
@@ -5577,12 +5577,12 @@
         <v>115</v>
       </c>
       <c r="G237" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="238" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B238" s="7">
         <v>116</v>
@@ -5594,12 +5594,12 @@
         <v>116</v>
       </c>
       <c r="G238" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="239" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B239" s="7">
         <v>117</v>
@@ -5611,12 +5611,12 @@
         <v>117</v>
       </c>
       <c r="G239" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="240" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B240" s="7">
         <v>118</v>
@@ -5628,12 +5628,12 @@
         <v>118</v>
       </c>
       <c r="G240" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="241" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B241" s="7">
         <v>119</v>
@@ -5645,12 +5645,12 @@
         <v>119</v>
       </c>
       <c r="G241" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="242" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B242" s="7">
         <v>120</v>
@@ -5662,12 +5662,12 @@
         <v>120</v>
       </c>
       <c r="G242" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="243" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B243" s="7">
         <v>121</v>
@@ -5679,12 +5679,12 @@
         <v>121</v>
       </c>
       <c r="G243" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="244" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B244" s="7">
         <v>122</v>
@@ -5696,12 +5696,12 @@
         <v>122</v>
       </c>
       <c r="G244" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="245" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B245" s="7">
         <v>123</v>
@@ -5713,12 +5713,12 @@
         <v>123</v>
       </c>
       <c r="G245" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="246" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B246" s="7">
         <v>124</v>
@@ -5730,12 +5730,12 @@
         <v>124</v>
       </c>
       <c r="G246" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="247" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B247" s="7">
         <v>125</v>
@@ -5747,12 +5747,12 @@
         <v>125</v>
       </c>
       <c r="G247" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="248" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B248" s="7">
         <v>126</v>
@@ -5764,12 +5764,12 @@
         <v>126</v>
       </c>
       <c r="G248" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="249" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B249" s="7">
         <v>127</v>
@@ -5781,12 +5781,12 @@
         <v>127</v>
       </c>
       <c r="G249" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="250" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B250" s="7">
         <v>128</v>
@@ -5798,12 +5798,12 @@
         <v>128</v>
       </c>
       <c r="G250" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="251" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B251" s="7">
         <v>129</v>
@@ -5815,12 +5815,12 @@
         <v>129</v>
       </c>
       <c r="G251" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="252" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B252" s="7">
         <v>130</v>
@@ -5832,12 +5832,12 @@
         <v>130</v>
       </c>
       <c r="G252" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="253" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B253" s="7">
         <v>131</v>
@@ -5849,12 +5849,12 @@
         <v>131</v>
       </c>
       <c r="G253" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="254" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B254" s="7">
         <v>132</v>
@@ -5866,12 +5866,12 @@
         <v>132</v>
       </c>
       <c r="G254" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="255" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B255" s="7">
         <v>133</v>
@@ -5883,12 +5883,12 @@
         <v>133</v>
       </c>
       <c r="G255" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="256" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B256" s="7">
         <v>134</v>
@@ -5900,12 +5900,12 @@
         <v>134</v>
       </c>
       <c r="G256" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="257" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B257" s="7">
         <v>135</v>
@@ -5917,12 +5917,12 @@
         <v>135</v>
       </c>
       <c r="G257" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="258" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B258" s="7">
         <v>136</v>
@@ -5934,12 +5934,12 @@
         <v>136</v>
       </c>
       <c r="G258" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="259" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B259" s="7">
         <v>137</v>
@@ -5951,12 +5951,12 @@
         <v>137</v>
       </c>
       <c r="G259" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="260" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B260" s="7">
         <v>138</v>
@@ -5968,12 +5968,12 @@
         <v>138</v>
       </c>
       <c r="G260" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="261" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B261" s="7">
         <v>139</v>
@@ -5985,12 +5985,12 @@
         <v>139</v>
       </c>
       <c r="G261" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="262" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B262" s="7">
         <v>140</v>
@@ -6002,12 +6002,12 @@
         <v>140</v>
       </c>
       <c r="G262" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="263" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B263" s="7">
         <v>141</v>
@@ -6019,12 +6019,12 @@
         <v>141</v>
       </c>
       <c r="G263" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="264" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B264" s="7">
         <v>142</v>
@@ -6036,12 +6036,12 @@
         <v>142</v>
       </c>
       <c r="G264" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="265" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B265" s="7">
         <v>143</v>
@@ -6053,12 +6053,12 @@
         <v>143</v>
       </c>
       <c r="G265" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="266" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B266" s="7">
         <v>144</v>
@@ -6070,12 +6070,12 @@
         <v>144</v>
       </c>
       <c r="G266" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="267" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B267" s="7">
         <v>145</v>
@@ -6087,12 +6087,12 @@
         <v>145</v>
       </c>
       <c r="G267" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="268" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B268" s="7">
         <v>146</v>
@@ -6104,12 +6104,12 @@
         <v>146</v>
       </c>
       <c r="G268" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="269" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B269" s="7">
         <v>147</v>
@@ -6121,12 +6121,12 @@
         <v>147</v>
       </c>
       <c r="G269" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="270" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B270" s="7">
         <v>148</v>
@@ -6138,12 +6138,12 @@
         <v>148</v>
       </c>
       <c r="G270" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="271" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B271" s="7">
         <v>149</v>
@@ -6155,12 +6155,12 @@
         <v>149</v>
       </c>
       <c r="G271" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="272" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B272" s="7">
         <v>150</v>
@@ -6172,12 +6172,12 @@
         <v>150</v>
       </c>
       <c r="G272" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="273" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B273" s="7">
         <v>151</v>
@@ -6189,12 +6189,12 @@
         <v>151</v>
       </c>
       <c r="G273" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="274" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B274" s="7">
         <v>152</v>
@@ -6206,12 +6206,12 @@
         <v>152</v>
       </c>
       <c r="G274" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="275" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B275" s="7">
         <v>153</v>
@@ -6223,12 +6223,12 @@
         <v>153</v>
       </c>
       <c r="G275" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="276" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B276" s="7">
         <v>154</v>
@@ -6240,12 +6240,12 @@
         <v>154</v>
       </c>
       <c r="G276" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="277" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B277" s="7">
         <v>155</v>
@@ -6257,12 +6257,12 @@
         <v>155</v>
       </c>
       <c r="G277" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="278" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B278" s="7">
         <v>156</v>
@@ -6274,12 +6274,12 @@
         <v>156</v>
       </c>
       <c r="G278" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="279" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B279" s="7">
         <v>157</v>
@@ -6291,12 +6291,12 @@
         <v>157</v>
       </c>
       <c r="G279" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="280" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B280" s="7">
         <v>158</v>
@@ -6308,12 +6308,12 @@
         <v>158</v>
       </c>
       <c r="G280" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="281" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B281" s="7">
         <v>159</v>
@@ -6325,12 +6325,12 @@
         <v>159</v>
       </c>
       <c r="G281" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="282" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B282" s="7">
         <v>160</v>
@@ -6342,12 +6342,12 @@
         <v>160</v>
       </c>
       <c r="G282" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="283" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B283" s="7">
         <v>161</v>
@@ -6359,12 +6359,12 @@
         <v>161</v>
       </c>
       <c r="G283" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="284" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B284" s="7">
         <v>162</v>
@@ -6376,12 +6376,12 @@
         <v>162</v>
       </c>
       <c r="G284" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="285" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B285" s="7">
         <v>163</v>
@@ -6393,12 +6393,12 @@
         <v>163</v>
       </c>
       <c r="G285" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="286" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B286" s="7">
         <v>164</v>
@@ -6410,12 +6410,12 @@
         <v>164</v>
       </c>
       <c r="G286" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="287" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B287" s="7">
         <v>165</v>
@@ -6427,12 +6427,12 @@
         <v>165</v>
       </c>
       <c r="G287" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="288" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B288" s="7">
         <v>166</v>
@@ -6444,12 +6444,12 @@
         <v>166</v>
       </c>
       <c r="G288" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="289" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B289" s="7">
         <v>167</v>
@@ -6461,12 +6461,12 @@
         <v>167</v>
       </c>
       <c r="G289" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="290" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B290" s="7">
         <v>168</v>
@@ -6478,12 +6478,12 @@
         <v>168</v>
       </c>
       <c r="G290" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="291" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B291" s="7">
         <v>169</v>
@@ -6495,12 +6495,12 @@
         <v>169</v>
       </c>
       <c r="G291" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="292" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B292" s="7">
         <v>170</v>
@@ -6512,12 +6512,12 @@
         <v>170</v>
       </c>
       <c r="G292" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="293" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B293" s="7">
         <v>171</v>
@@ -6529,12 +6529,12 @@
         <v>171</v>
       </c>
       <c r="G293" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="294" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B294" s="7">
         <v>172</v>
@@ -6546,12 +6546,12 @@
         <v>172</v>
       </c>
       <c r="G294" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="295" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B295" s="7">
         <v>173</v>
@@ -6563,12 +6563,12 @@
         <v>173</v>
       </c>
       <c r="G295" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="296" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B296" s="7">
         <v>174</v>
@@ -6580,12 +6580,12 @@
         <v>174</v>
       </c>
       <c r="G296" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="297" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B297" s="7">
         <v>175</v>
@@ -6597,12 +6597,12 @@
         <v>175</v>
       </c>
       <c r="G297" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="298" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B298" s="7">
         <v>176</v>
@@ -6614,12 +6614,12 @@
         <v>176</v>
       </c>
       <c r="G298" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="299" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B299" s="7">
         <v>177</v>
@@ -6631,12 +6631,12 @@
         <v>177</v>
       </c>
       <c r="G299" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="300" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B300" s="7">
         <v>178</v>
@@ -6648,12 +6648,12 @@
         <v>178</v>
       </c>
       <c r="G300" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="301" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B301" s="7">
         <v>179</v>
@@ -6665,12 +6665,12 @@
         <v>179</v>
       </c>
       <c r="G301" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="302" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B302" s="7">
         <v>180</v>
@@ -6682,12 +6682,12 @@
         <v>180</v>
       </c>
       <c r="G302" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="303" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B303" s="7">
         <v>181</v>
@@ -6699,12 +6699,12 @@
         <v>181</v>
       </c>
       <c r="G303" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="304" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B304" s="7">
         <v>182</v>
@@ -6716,12 +6716,12 @@
         <v>182</v>
       </c>
       <c r="G304" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="305" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B305" s="7">
         <v>183</v>
@@ -6733,12 +6733,12 @@
         <v>183</v>
       </c>
       <c r="G305" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="306" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B306" s="7">
         <v>184</v>
@@ -6750,7 +6750,7 @@
         <v>184</v>
       </c>
       <c r="G306" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
@@ -6815,8 +6815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6841,12 +6841,12 @@
         <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>232</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>

--- a/LF/PreTAS/Nigeria/ng_lf_pretas_1_site_202102.xlsx
+++ b/LF/PreTAS/Nigeria/ng_lf_pretas_1_site_202102.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Nigeria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7324AF-6F82-4572-A08A-3AEA0F5AB222}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F19EC38-4A08-4A58-8501-690AF8603EE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="234">
   <si>
     <t>form_title</t>
   </si>
@@ -242,9 +242,6 @@
     <t>. &gt; 99 and . &lt; 1000</t>
   </si>
   <si>
-    <t>ng_lf_pretas_1_site_202102</t>
-  </si>
-  <si>
     <t>English</t>
   </si>
   <si>
@@ -467,9 +464,6 @@
     <t>KwasaIIo</t>
   </si>
   <si>
-    <t>Turawa</t>
-  </si>
-  <si>
     <t>Abet</t>
   </si>
   <si>
@@ -728,7 +722,16 @@
     <t>Does the school leader or community leader consent to participating in this survey?</t>
   </si>
   <si>
-    <t>1. Nigeria - Pre TAS LF Site Form</t>
+    <t>Turawa-KD</t>
+  </si>
+  <si>
+    <t>Turawa-KN</t>
+  </si>
+  <si>
+    <t>1. Nigeria - Pre TAS LF Site Form V2</t>
+  </si>
+  <si>
+    <t>ng_lf_pretas_1_site_202102_v2</t>
   </si>
 </sst>
 </file>
@@ -1265,17 +1268,17 @@
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="8"/>
@@ -1291,17 +1294,17 @@
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="8"/>
@@ -1316,22 +1319,22 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="8"/>
@@ -1346,22 +1349,22 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1382,22 +1385,22 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1412,7 +1415,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1451,7 +1454,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10" t="s">
@@ -1566,8 +1569,8 @@
   <dimension ref="A1:G318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A122" sqref="A122"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1592,3742 +1595,3742 @@
         <v>33</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="123" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="125" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="127" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="129" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="130" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="131" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="132" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="133" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="134" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="135" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="136" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F136" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="137" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="138" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="139" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G139" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="140" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="141" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G141" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="142" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="143" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G143" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="144" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G144" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="145" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G145" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="146" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G146" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="147" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G147" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="148" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G148" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="149" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G149" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="150" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G150" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="151" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G151" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="152" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G152" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="153" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G153" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="154" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G154" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="155" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G155" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="156" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G156" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="157" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G157" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="158" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G158" s="12" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
     </row>
     <row r="159" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G159" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="160" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G160" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="161" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G161" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="162" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G162" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="163" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G163" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="164" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G164" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="165" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G165" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="166" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G166" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="167" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G167" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="168" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G168" s="12" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
     </row>
     <row r="169" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G169" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="170" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G170" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="171" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G171" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="172" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G172" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="173" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G173" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="174" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G174" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="175" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G175" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="176" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G176" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="177" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G177" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="178" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G178" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="179" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G179" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="180" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G180" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="181" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G181" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="182" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G182" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="183" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G183" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="184" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G184" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="185" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G185" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="186" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G186" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="187" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G187" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="188" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G188" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="189" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G189" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="190" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G190" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="191" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G191" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="192" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G192" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="193" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G193" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="194" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G194" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="195" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G195" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="196" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G196" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="197" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G197" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="198" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G198" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="199" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G199" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="200" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G200" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="201" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G201" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="202" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G202" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="203" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G203" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="204" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G204" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="205" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G205" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="206" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G206" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="207" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G207" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="208" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G208" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="209" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G209" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="210" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G210" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="211" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G211" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="212" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G212" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="213" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G213" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="214" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G214" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="215" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G215" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="216" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G216" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="217" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G217" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="218" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G218" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="219" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G219" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="220" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G220" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="221" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G221" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="222" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G222" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="223" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B223" s="7">
         <v>101</v>
@@ -5339,12 +5342,12 @@
         <v>101</v>
       </c>
       <c r="G223" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="224" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B224" s="7">
         <v>102</v>
@@ -5356,12 +5359,12 @@
         <v>102</v>
       </c>
       <c r="G224" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="225" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B225" s="7">
         <v>103</v>
@@ -5373,12 +5376,12 @@
         <v>103</v>
       </c>
       <c r="G225" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="226" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B226" s="7">
         <v>104</v>
@@ -5390,12 +5393,12 @@
         <v>104</v>
       </c>
       <c r="G226" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="227" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B227" s="7">
         <v>105</v>
@@ -5407,12 +5410,12 @@
         <v>105</v>
       </c>
       <c r="G227" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="228" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B228" s="7">
         <v>106</v>
@@ -5424,12 +5427,12 @@
         <v>106</v>
       </c>
       <c r="G228" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="229" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B229" s="7">
         <v>107</v>
@@ -5441,12 +5444,12 @@
         <v>107</v>
       </c>
       <c r="G229" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="230" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B230" s="7">
         <v>108</v>
@@ -5458,12 +5461,12 @@
         <v>108</v>
       </c>
       <c r="G230" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="231" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B231" s="7">
         <v>109</v>
@@ -5475,12 +5478,12 @@
         <v>109</v>
       </c>
       <c r="G231" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="232" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B232" s="7">
         <v>110</v>
@@ -5492,12 +5495,12 @@
         <v>110</v>
       </c>
       <c r="G232" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="233" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B233" s="7">
         <v>111</v>
@@ -5509,12 +5512,12 @@
         <v>111</v>
       </c>
       <c r="G233" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="234" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B234" s="7">
         <v>112</v>
@@ -5526,12 +5529,12 @@
         <v>112</v>
       </c>
       <c r="G234" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="235" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B235" s="7">
         <v>113</v>
@@ -5543,12 +5546,12 @@
         <v>113</v>
       </c>
       <c r="G235" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="236" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B236" s="7">
         <v>114</v>
@@ -5560,12 +5563,12 @@
         <v>114</v>
       </c>
       <c r="G236" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="237" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B237" s="7">
         <v>115</v>
@@ -5577,12 +5580,12 @@
         <v>115</v>
       </c>
       <c r="G237" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="238" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B238" s="7">
         <v>116</v>
@@ -5594,12 +5597,12 @@
         <v>116</v>
       </c>
       <c r="G238" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="239" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B239" s="7">
         <v>117</v>
@@ -5611,12 +5614,12 @@
         <v>117</v>
       </c>
       <c r="G239" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="240" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B240" s="7">
         <v>118</v>
@@ -5628,12 +5631,12 @@
         <v>118</v>
       </c>
       <c r="G240" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="241" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B241" s="7">
         <v>119</v>
@@ -5645,12 +5648,12 @@
         <v>119</v>
       </c>
       <c r="G241" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="242" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B242" s="7">
         <v>120</v>
@@ -5662,12 +5665,12 @@
         <v>120</v>
       </c>
       <c r="G242" s="12" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
     </row>
     <row r="243" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B243" s="7">
         <v>121</v>
@@ -5679,12 +5682,12 @@
         <v>121</v>
       </c>
       <c r="G243" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="244" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B244" s="7">
         <v>122</v>
@@ -5696,12 +5699,12 @@
         <v>122</v>
       </c>
       <c r="G244" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="245" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B245" s="7">
         <v>123</v>
@@ -5713,12 +5716,12 @@
         <v>123</v>
       </c>
       <c r="G245" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="246" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B246" s="7">
         <v>124</v>
@@ -5730,12 +5733,12 @@
         <v>124</v>
       </c>
       <c r="G246" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="247" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B247" s="7">
         <v>125</v>
@@ -5747,12 +5750,12 @@
         <v>125</v>
       </c>
       <c r="G247" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="248" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B248" s="7">
         <v>126</v>
@@ -5764,12 +5767,12 @@
         <v>126</v>
       </c>
       <c r="G248" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="249" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B249" s="7">
         <v>127</v>
@@ -5781,12 +5784,12 @@
         <v>127</v>
       </c>
       <c r="G249" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="250" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B250" s="7">
         <v>128</v>
@@ -5798,12 +5801,12 @@
         <v>128</v>
       </c>
       <c r="G250" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="251" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B251" s="7">
         <v>129</v>
@@ -5815,12 +5818,12 @@
         <v>129</v>
       </c>
       <c r="G251" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="252" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B252" s="7">
         <v>130</v>
@@ -5832,12 +5835,12 @@
         <v>130</v>
       </c>
       <c r="G252" s="12" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
     </row>
     <row r="253" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B253" s="7">
         <v>131</v>
@@ -5849,12 +5852,12 @@
         <v>131</v>
       </c>
       <c r="G253" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="254" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B254" s="7">
         <v>132</v>
@@ -5866,12 +5869,12 @@
         <v>132</v>
       </c>
       <c r="G254" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="255" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B255" s="7">
         <v>133</v>
@@ -5883,12 +5886,12 @@
         <v>133</v>
       </c>
       <c r="G255" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="256" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B256" s="7">
         <v>134</v>
@@ -5900,12 +5903,12 @@
         <v>134</v>
       </c>
       <c r="G256" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="257" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B257" s="7">
         <v>135</v>
@@ -5917,12 +5920,12 @@
         <v>135</v>
       </c>
       <c r="G257" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="258" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B258" s="7">
         <v>136</v>
@@ -5934,12 +5937,12 @@
         <v>136</v>
       </c>
       <c r="G258" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="259" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B259" s="7">
         <v>137</v>
@@ -5951,12 +5954,12 @@
         <v>137</v>
       </c>
       <c r="G259" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="260" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B260" s="7">
         <v>138</v>
@@ -5968,12 +5971,12 @@
         <v>138</v>
       </c>
       <c r="G260" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="261" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B261" s="7">
         <v>139</v>
@@ -5985,12 +5988,12 @@
         <v>139</v>
       </c>
       <c r="G261" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="262" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B262" s="7">
         <v>140</v>
@@ -6002,12 +6005,12 @@
         <v>140</v>
       </c>
       <c r="G262" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="263" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B263" s="7">
         <v>141</v>
@@ -6019,12 +6022,12 @@
         <v>141</v>
       </c>
       <c r="G263" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="264" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B264" s="7">
         <v>142</v>
@@ -6036,12 +6039,12 @@
         <v>142</v>
       </c>
       <c r="G264" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="265" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B265" s="7">
         <v>143</v>
@@ -6053,12 +6056,12 @@
         <v>143</v>
       </c>
       <c r="G265" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="266" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B266" s="7">
         <v>144</v>
@@ -6070,12 +6073,12 @@
         <v>144</v>
       </c>
       <c r="G266" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="267" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B267" s="7">
         <v>145</v>
@@ -6087,12 +6090,12 @@
         <v>145</v>
       </c>
       <c r="G267" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="268" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B268" s="7">
         <v>146</v>
@@ -6104,12 +6107,12 @@
         <v>146</v>
       </c>
       <c r="G268" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="269" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B269" s="7">
         <v>147</v>
@@ -6121,12 +6124,12 @@
         <v>147</v>
       </c>
       <c r="G269" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="270" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B270" s="7">
         <v>148</v>
@@ -6138,12 +6141,12 @@
         <v>148</v>
       </c>
       <c r="G270" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="271" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B271" s="7">
         <v>149</v>
@@ -6155,12 +6158,12 @@
         <v>149</v>
       </c>
       <c r="G271" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="272" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B272" s="7">
         <v>150</v>
@@ -6172,12 +6175,12 @@
         <v>150</v>
       </c>
       <c r="G272" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="273" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B273" s="7">
         <v>151</v>
@@ -6189,12 +6192,12 @@
         <v>151</v>
       </c>
       <c r="G273" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="274" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B274" s="7">
         <v>152</v>
@@ -6206,12 +6209,12 @@
         <v>152</v>
       </c>
       <c r="G274" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="275" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B275" s="7">
         <v>153</v>
@@ -6223,12 +6226,12 @@
         <v>153</v>
       </c>
       <c r="G275" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="276" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B276" s="7">
         <v>154</v>
@@ -6240,12 +6243,12 @@
         <v>154</v>
       </c>
       <c r="G276" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="277" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B277" s="7">
         <v>155</v>
@@ -6257,12 +6260,12 @@
         <v>155</v>
       </c>
       <c r="G277" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="278" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B278" s="7">
         <v>156</v>
@@ -6274,12 +6277,12 @@
         <v>156</v>
       </c>
       <c r="G278" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="279" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B279" s="7">
         <v>157</v>
@@ -6291,12 +6294,12 @@
         <v>157</v>
       </c>
       <c r="G279" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="280" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B280" s="7">
         <v>158</v>
@@ -6308,12 +6311,12 @@
         <v>158</v>
       </c>
       <c r="G280" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="281" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B281" s="7">
         <v>159</v>
@@ -6325,12 +6328,12 @@
         <v>159</v>
       </c>
       <c r="G281" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="282" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B282" s="7">
         <v>160</v>
@@ -6342,12 +6345,12 @@
         <v>160</v>
       </c>
       <c r="G282" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="283" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B283" s="7">
         <v>161</v>
@@ -6359,12 +6362,12 @@
         <v>161</v>
       </c>
       <c r="G283" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="284" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B284" s="7">
         <v>162</v>
@@ -6376,12 +6379,12 @@
         <v>162</v>
       </c>
       <c r="G284" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="285" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B285" s="7">
         <v>163</v>
@@ -6393,12 +6396,12 @@
         <v>163</v>
       </c>
       <c r="G285" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="286" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B286" s="7">
         <v>164</v>
@@ -6410,12 +6413,12 @@
         <v>164</v>
       </c>
       <c r="G286" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="287" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B287" s="7">
         <v>165</v>
@@ -6427,12 +6430,12 @@
         <v>165</v>
       </c>
       <c r="G287" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="288" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B288" s="7">
         <v>166</v>
@@ -6444,12 +6447,12 @@
         <v>166</v>
       </c>
       <c r="G288" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="289" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B289" s="7">
         <v>167</v>
@@ -6461,12 +6464,12 @@
         <v>167</v>
       </c>
       <c r="G289" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="290" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B290" s="7">
         <v>168</v>
@@ -6478,12 +6481,12 @@
         <v>168</v>
       </c>
       <c r="G290" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="291" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B291" s="7">
         <v>169</v>
@@ -6495,12 +6498,12 @@
         <v>169</v>
       </c>
       <c r="G291" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="292" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B292" s="7">
         <v>170</v>
@@ -6512,12 +6515,12 @@
         <v>170</v>
       </c>
       <c r="G292" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="293" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B293" s="7">
         <v>171</v>
@@ -6529,12 +6532,12 @@
         <v>171</v>
       </c>
       <c r="G293" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="294" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B294" s="7">
         <v>172</v>
@@ -6546,12 +6549,12 @@
         <v>172</v>
       </c>
       <c r="G294" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="295" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B295" s="7">
         <v>173</v>
@@ -6563,12 +6566,12 @@
         <v>173</v>
       </c>
       <c r="G295" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="296" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B296" s="7">
         <v>174</v>
@@ -6580,12 +6583,12 @@
         <v>174</v>
       </c>
       <c r="G296" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="297" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B297" s="7">
         <v>175</v>
@@ -6597,12 +6600,12 @@
         <v>175</v>
       </c>
       <c r="G297" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="298" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B298" s="7">
         <v>176</v>
@@ -6614,12 +6617,12 @@
         <v>176</v>
       </c>
       <c r="G298" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="299" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B299" s="7">
         <v>177</v>
@@ -6631,12 +6634,12 @@
         <v>177</v>
       </c>
       <c r="G299" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="300" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B300" s="7">
         <v>178</v>
@@ -6648,12 +6651,12 @@
         <v>178</v>
       </c>
       <c r="G300" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="301" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B301" s="7">
         <v>179</v>
@@ -6665,12 +6668,12 @@
         <v>179</v>
       </c>
       <c r="G301" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="302" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B302" s="7">
         <v>180</v>
@@ -6682,12 +6685,12 @@
         <v>180</v>
       </c>
       <c r="G302" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="303" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B303" s="7">
         <v>181</v>
@@ -6699,12 +6702,12 @@
         <v>181</v>
       </c>
       <c r="G303" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="304" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B304" s="7">
         <v>182</v>
@@ -6716,12 +6719,12 @@
         <v>182</v>
       </c>
       <c r="G304" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="305" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B305" s="7">
         <v>183</v>
@@ -6733,12 +6736,12 @@
         <v>183</v>
       </c>
       <c r="G305" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="306" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B306" s="7">
         <v>184</v>
@@ -6750,7 +6753,7 @@
         <v>184</v>
       </c>
       <c r="G306" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
@@ -6816,7 +6819,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6841,7 +6844,7 @@
         <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6849,13 +6852,13 @@
         <v>232</v>
       </c>
       <c r="B2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2">
+        <v>20200219</v>
+      </c>
+      <c r="D2" t="s">
         <v>70</v>
-      </c>
-      <c r="C2">
-        <v>20200216</v>
-      </c>
-      <c r="D2" t="s">
-        <v>71</v>
       </c>
       <c r="E2" t="s">
         <v>55</v>
